--- a/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
@@ -765,16 +765,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brian McDonald</t>
+          <t>Rob Harvey</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45985</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="13">
@@ -807,30 +807,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rob Harvey</t>
+          <t>Sean Hsien</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="15">
@@ -938,11 +938,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45985</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="19">
@@ -966,11 +966,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="20">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="24">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bonner Pang</t>
+          <t>Rib Das</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rib Das</t>
+          <t>Bonner Pang</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">

--- a/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Madyson Almeida</t>
+          <t>Dennis Coombs</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45994</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="3">
@@ -513,16 +513,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dennis Coombs</t>
+          <t>Erik Gallant</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="4">
@@ -541,16 +541,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mike Gomez</t>
+          <t>Madyson Almeida</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45992</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +569,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erik Gallant</t>
+          <t>Mike Gomez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mikaela Stamas</t>
+          <t>Tiffany Shih</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45986</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="7">
@@ -625,16 +625,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Matt Bartley</t>
+          <t>Mikaela Stamas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45977</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tiffany Shih</t>
+          <t>Matt Bartley</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,54 +662,54 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45994</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>633</v>
+        <v>484</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Factory</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS1 Factory - Enterprise AE</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tiffany Shih</t>
+          <t>Erik Abbott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45981</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>681</v>
+        <v>633</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Metaview</t>
+          <t>Factory</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Metaview - UK MM / Enterprise AE</t>
+          <t>CS1 Factory - Enterprise AE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marina Shynkarenka</t>
+          <t>Tiffany Shih</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,63 +718,63 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>Metaview</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Founding EMEA AE</t>
+          <t>Metaview - UK MM / Enterprise AE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Katie Pope</t>
+          <t>Marina Shynkarenka</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45993</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>750</v>
+        <v>696</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Founding EMEA AE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rob Harvey</t>
+          <t>Katie Pope</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="13">
@@ -807,91 +807,91 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Novee.io</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SDR (Singapore)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sean Hsien</t>
+          <t>Rob Harvey</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Account Executive (EMEA)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shiwalla Singh</t>
+          <t>Sean Hsien</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45981</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SDR London</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Daniel Murphy</t>
+          <t>Dinie Mifdhal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -900,17 +900,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SDR London</t>
+          <t>Account Executive (EMEA)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Toby Sproston</t>
+          <t>Shiwalla Singh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
@@ -933,16 +933,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bilal Javaid</t>
+          <t>Toby Sproston</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45992</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="19">
@@ -961,7 +961,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Justin Kanapathy</t>
+          <t>Bilal Javaid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -989,91 +989,91 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Morgan Males</t>
+          <t>Daniel Murphy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45988</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Enterprise AE</t>
+          <t>SDR London</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jamie Summers</t>
+          <t>Justin Kanapathy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45981</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mid-Market AE</t>
+          <t>SDR London</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Shahz Shuja</t>
+          <t>Morgan Males</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45994</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive UK x4</t>
+          <t>Enterprise AE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Luiz Kemmer</t>
+          <t>Jamie Summers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1082,72 +1082,72 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45992</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive</t>
+          <t>Mid-Market AE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Erik Hug</t>
+          <t>Shahz Shuja</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45980</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive</t>
+          <t>Enterprise Account Executive UK x4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rib Das</t>
+          <t>Luiz Kemmer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bonner Pang</t>
+          <t>Erik Hug</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="27">
@@ -1185,15 +1185,71 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Rib Das</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>832</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Blockaid</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Jason Ong</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F28" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>832</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Blockaid</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bonner Pang</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Ben_Clifton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dennis Coombs</t>
+          <t>Madyson Almeida</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -526,32 +526,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Madyson Almeida</t>
+          <t>Mike Gomez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>196</v>
+        <v>484</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (Fintech)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mike Gomez</t>
+          <t>Andrew Rydalch</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Andrew Rydalch</t>
+          <t>Mikaela Stamas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -601,52 +601,52 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Matt Bartley</t>
+          <t>Tiffany Shih</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>484</v>
+        <v>591</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>Doxel.ai</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>CS1 Doxel - Enterprise AE Northeast U.S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mikaela Stamas</t>
+          <t>Mike Gomez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>484</v>
+        <v>633</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>Factory</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>CS1 Factory - Enterprise AE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -662,16 +662,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Doxel.ai</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS1 Doxel - Enterprise AE Northeast U.S</t>
+          <t>Enterprise AE PST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -681,57 +681,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>633</v>
+        <v>750</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Factory</t>
+          <t>Novee.io</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS1 Factory - Enterprise AE</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tiffany Shih</t>
+          <t>Garrett Kingston</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Novee.io</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise AE PST</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mike Gomez</t>
+          <t>Tricia Rupp</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -751,122 +751,122 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tricia Rupp</t>
+          <t>Danny Nia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rob Harvey</t>
+          <t>Annisa Mareizky</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Keith Kaplan</t>
+          <t>Dinie Mifdhal</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Garrett Kingston</t>
+          <t>Dinie Mifdhal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SDR (Singapore)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Danny Nia</t>
+          <t>Hayoung Kim</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -876,107 +876,107 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chas Sheffield</t>
+          <t>Max B.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SDR (Singapore)</t>
+          <t>SDR London</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Annisa Mareizky</t>
+          <t>Fouad Abou-Steit</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SDR (Singapore)</t>
+          <t>Mid-Market AE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dinie Mifdhal</t>
+          <t>Andy Evans</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SDR (Singapore)</t>
+          <t>Mid-Market AE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hayoung Kim</t>
+          <t>Shahz Shuja</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SDR (Singapore)</t>
+          <t>Enterprise Account Executive</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sean Hsien</t>
+          <t>Erik Hug</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,176 +987,76 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SDR London</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fouad Abou-Steit</t>
+          <t>Jeff Cooperstein</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>782</v>
+        <v>847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Simile.ai</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Enterprise AE</t>
+          <t>CS1 Simile.ai - Enterprise AE x2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jamie Summers</t>
+          <t>Amelia Silverwood</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>783</v>
+        <v>865</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Accel Data</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mid-Market AE</t>
+          <t>Enterprise Account Executive</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Andy Evans</t>
+          <t>Sultan Miah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>783</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Port</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mid-Market AE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Shahz Shuja</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>816</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Allium</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Erik Hug</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>824</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Blockaid</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Technical Account Manager</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Jeff Cooperstein</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>865</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Accel Data</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Sultan Miah</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
         </is>
       </c>
     </row>
